--- a/data_report/pic1.xlsx
+++ b/data_report/pic1.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>状态</t>
   </si>
   <si>
     <t>数据</t>
+  </si>
+  <si>
+    <t>解决结果</t>
   </si>
   <si>
     <t>Unresolved</t>
@@ -125,19 +128,22 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>解决结果</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Unresolved</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>已解决</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>遗留问题</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>其他</c:v>
                 </c:pt>
               </c:strCache>
@@ -145,20 +151,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -512,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,6 +564,14 @@
         <v>5</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
